--- a/public/data/bios.xlsx
+++ b/public/data/bios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sufi-bios\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D9136-5415-4A55-BD72-E7EC4B970C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786159DD-09BC-48B5-B929-29CF47FE7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="2235" windowWidth="34035" windowHeight="18645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="2288">
   <si>
     <t>bio_id</t>
   </si>
@@ -6924,8 +6924,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7208,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I846"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10694,6 +10695,9 @@
       <c r="H226" t="s">
         <v>693</v>
       </c>
+      <c r="I226" s="1" t="s">
+        <v>1650</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -20745,5 +20749,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>